--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efnb3</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H2">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I2">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J2">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N2">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="O2">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P2">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q2">
-        <v>0.6750724248589998</v>
+        <v>0.3485560522423334</v>
       </c>
       <c r="R2">
-        <v>6.075651823730999</v>
+        <v>3.137004470181</v>
       </c>
       <c r="S2">
-        <v>0.02591126467509116</v>
+        <v>0.04343319569525077</v>
       </c>
       <c r="T2">
-        <v>0.03545075980166494</v>
+        <v>0.0506327507911986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H3">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I3">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J3">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
         <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P3">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q3">
-        <v>0.5497579137127778</v>
+        <v>0.4488499930716666</v>
       </c>
       <c r="R3">
-        <v>4.947821223415</v>
+        <v>4.039649937645</v>
       </c>
       <c r="S3">
-        <v>0.02110132525767588</v>
+        <v>0.05593071605407033</v>
       </c>
       <c r="T3">
-        <v>0.02886999235995575</v>
+        <v>0.06520187985726993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H4">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I4">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J4">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +685,22 @@
         <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P4">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q4">
-        <v>0.001854527612</v>
+        <v>0.001514129556</v>
       </c>
       <c r="R4">
-        <v>0.016690748508</v>
+        <v>0.013627166004</v>
       </c>
       <c r="S4">
-        <v>7.118222287309908E-05</v>
+        <v>0.0001886740594249936</v>
       </c>
       <c r="T4">
-        <v>9.738868082531898E-05</v>
+        <v>0.0002199489694163601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H5">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I5">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J5">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,42 +741,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="N5">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="O5">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P5">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q5">
-        <v>0.2752960974376666</v>
+        <v>0.055037696375</v>
       </c>
       <c r="R5">
-        <v>1.651776584626</v>
+        <v>0.33022617825</v>
       </c>
       <c r="S5">
-        <v>0.01056667371092364</v>
+        <v>0.006858188293942464</v>
       </c>
       <c r="T5">
-        <v>0.009637934602979219</v>
+        <v>0.005330008276047323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.08736233333333332</v>
+        <v>0.3509106666666666</v>
       </c>
       <c r="H6">
-        <v>0.262087</v>
+        <v>1.052732</v>
       </c>
       <c r="I6">
-        <v>0.05767651158852534</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J6">
-        <v>0.07409173752753134</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007773333333333333</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N6">
-        <v>0.02332</v>
+        <v>14.660201</v>
       </c>
       <c r="O6">
-        <v>0.0004519295852621654</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P6">
-        <v>0.0004813233336965963</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q6">
-        <v>0.0006790965377777777</v>
+        <v>1.714806968792445</v>
       </c>
       <c r="R6">
-        <v>0.00611186884</v>
+        <v>15.433262719132</v>
       </c>
       <c r="S6">
-        <v>2.606572196157074E-05</v>
+        <v>0.2136802565211525</v>
       </c>
       <c r="T6">
-        <v>3.566208210612459E-05</v>
+        <v>0.249100233225941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,10 +853,10 @@
         <v>1.052732</v>
       </c>
       <c r="I7">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J7">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.727270999999999</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N7">
-        <v>23.181813</v>
+        <v>18.878545</v>
       </c>
       <c r="O7">
-        <v>0.4492515923977304</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P7">
-        <v>0.4784711627054499</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q7">
-        <v>2.711581818123999</v>
+        <v>2.208227603882222</v>
       </c>
       <c r="R7">
-        <v>24.404236363116</v>
+        <v>19.87404843494</v>
       </c>
       <c r="S7">
-        <v>0.1040784834193915</v>
+        <v>0.2751648724561226</v>
       </c>
       <c r="T7">
-        <v>0.1423960336358779</v>
+        <v>0.3207766361775274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +915,40 @@
         <v>1.052732</v>
       </c>
       <c r="I8">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J8">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.292848333333334</v>
+        <v>0.021228</v>
       </c>
       <c r="N8">
-        <v>18.878545</v>
+        <v>0.063684</v>
       </c>
       <c r="O8">
-        <v>0.3658564756519352</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P8">
-        <v>0.3896519817642028</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q8">
-        <v>2.208227603882222</v>
+        <v>0.007449131632</v>
       </c>
       <c r="R8">
-        <v>19.87404843494</v>
+        <v>0.06704218468800001</v>
       </c>
       <c r="S8">
-        <v>0.08475826859464089</v>
+        <v>0.0009282283003004581</v>
       </c>
       <c r="T8">
-        <v>0.1159628855955501</v>
+        <v>0.001082092888955672</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,164 +977,164 @@
         <v>1.052732</v>
       </c>
       <c r="I9">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J9">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.021228</v>
+        <v>0.771625</v>
       </c>
       <c r="N9">
-        <v>0.063684</v>
+        <v>1.54325</v>
       </c>
       <c r="O9">
-        <v>0.001234163109255392</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P9">
-        <v>0.001314433755709007</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q9">
-        <v>0.007449131632</v>
+        <v>0.2707714431666667</v>
       </c>
       <c r="R9">
-        <v>0.06704218468800001</v>
+        <v>1.624628659</v>
       </c>
       <c r="S9">
-        <v>0.0002859195757502026</v>
+        <v>0.03374053901542024</v>
       </c>
       <c r="T9">
-        <v>0.0003911837700557438</v>
+        <v>0.02622228269079895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.3509106666666666</v>
+        <v>0.248061</v>
       </c>
       <c r="H10">
-        <v>1.052732</v>
+        <v>0.496122</v>
       </c>
       <c r="I10">
-        <v>0.2316708169333521</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J10">
-        <v>0.2976063026049867</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.151199</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N10">
-        <v>6.302398</v>
+        <v>14.660201</v>
       </c>
       <c r="O10">
-        <v>0.183205839255817</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P10">
-        <v>0.1300810984409417</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q10">
-        <v>1.105789341889333</v>
+        <v>1.212208040087</v>
       </c>
       <c r="R10">
-        <v>6.634736051336001</v>
+        <v>7.273248240522</v>
       </c>
       <c r="S10">
-        <v>0.04244344644735551</v>
+        <v>0.1510519432663592</v>
       </c>
       <c r="T10">
-        <v>0.03871295474580395</v>
+        <v>0.1173937012539947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.3509106666666666</v>
+        <v>0.248061</v>
       </c>
       <c r="H11">
-        <v>1.052732</v>
+        <v>0.496122</v>
       </c>
       <c r="I11">
-        <v>0.2316708169333521</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J11">
-        <v>0.2976063026049867</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.007773333333333333</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N11">
-        <v>0.02332</v>
+        <v>18.878545</v>
       </c>
       <c r="O11">
-        <v>0.0004519295852621654</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P11">
-        <v>0.0004813233336965963</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q11">
-        <v>0.002727745582222222</v>
+        <v>1.561010250415</v>
       </c>
       <c r="R11">
-        <v>0.02454971024</v>
+        <v>9.36606150249</v>
       </c>
       <c r="S11">
-        <v>0.0001046988962140369</v>
+        <v>0.1945158124565556</v>
       </c>
       <c r="T11">
-        <v>0.0001432448576989502</v>
+        <v>0.1511727071027263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H12">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I12">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J12">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>7.727270999999999</v>
+        <v>0.021228</v>
       </c>
       <c r="N12">
-        <v>23.181813</v>
+        <v>0.063684</v>
       </c>
       <c r="O12">
-        <v>0.4492515923977304</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P12">
-        <v>0.4784711627054499</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q12">
-        <v>7.779464851969499</v>
+        <v>0.005265838908</v>
       </c>
       <c r="R12">
-        <v>46.67678911181699</v>
+        <v>0.031595033448</v>
       </c>
       <c r="S12">
-        <v>0.2985987360571765</v>
+        <v>0.0006561705364731915</v>
       </c>
       <c r="T12">
-        <v>0.2723539279609083</v>
+        <v>0.0005099589337594618</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,557 +1204,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.248061</v>
+      </c>
+      <c r="H13">
+        <v>0.496122</v>
+      </c>
+      <c r="I13">
+        <v>0.3700753296043157</v>
+      </c>
+      <c r="J13">
+        <v>0.2814341671228447</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.0067545</v>
-      </c>
-      <c r="H13">
-        <v>2.013509</v>
-      </c>
-      <c r="I13">
-        <v>0.6646581583907257</v>
-      </c>
-      <c r="J13">
-        <v>0.569217017010848</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.292848333333334</v>
+        <v>0.771625</v>
       </c>
       <c r="N13">
-        <v>18.878545</v>
+        <v>1.54325</v>
       </c>
       <c r="O13">
-        <v>0.3658564756519352</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P13">
-        <v>0.3896519817642028</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q13">
-        <v>6.335353377400835</v>
+        <v>0.191410069125</v>
       </c>
       <c r="R13">
-        <v>38.01212026440501</v>
+        <v>0.7656402765</v>
       </c>
       <c r="S13">
-        <v>0.2431694913421366</v>
+        <v>0.02385140334492775</v>
       </c>
       <c r="T13">
-        <v>0.2217965387321849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.0067545</v>
-      </c>
-      <c r="H14">
-        <v>2.013509</v>
-      </c>
-      <c r="I14">
-        <v>0.6646581583907257</v>
-      </c>
-      <c r="J14">
-        <v>0.569217017010848</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.021228</v>
-      </c>
-      <c r="N14">
-        <v>0.063684</v>
-      </c>
-      <c r="O14">
-        <v>0.001234163109255392</v>
-      </c>
-      <c r="P14">
-        <v>0.001314433755709007</v>
-      </c>
-      <c r="Q14">
-        <v>0.021371384526</v>
-      </c>
-      <c r="R14">
-        <v>0.128228307156</v>
-      </c>
-      <c r="S14">
-        <v>0.0008202965793514609</v>
-      </c>
-      <c r="T14">
-        <v>0.0007481980614830466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.0067545</v>
-      </c>
-      <c r="H15">
-        <v>2.013509</v>
-      </c>
-      <c r="I15">
-        <v>0.6646581583907257</v>
-      </c>
-      <c r="J15">
-        <v>0.569217017010848</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.151199</v>
-      </c>
-      <c r="N15">
-        <v>6.302398</v>
-      </c>
-      <c r="O15">
-        <v>0.183205839255817</v>
-      </c>
-      <c r="P15">
-        <v>0.1300810984409417</v>
-      </c>
-      <c r="Q15">
-        <v>3.1724837736455</v>
-      </c>
-      <c r="R15">
-        <v>12.689935094582</v>
-      </c>
-      <c r="S15">
-        <v>0.1217692557261986</v>
-      </c>
-      <c r="T15">
-        <v>0.07404437482404731</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.0067545</v>
-      </c>
-      <c r="H16">
-        <v>2.013509</v>
-      </c>
-      <c r="I16">
-        <v>0.6646581583907257</v>
-      </c>
-      <c r="J16">
-        <v>0.569217017010848</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.02332</v>
-      </c>
-      <c r="O16">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="P16">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="Q16">
-        <v>0.007825838313333333</v>
-      </c>
-      <c r="R16">
-        <v>0.04695502988</v>
-      </c>
-      <c r="S16">
-        <v>0.0003003786858626354</v>
-      </c>
-      <c r="T16">
-        <v>0.0002739774322244935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.209003</v>
-      </c>
-      <c r="I17">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J17">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>7.727270999999999</v>
-      </c>
-      <c r="N17">
-        <v>23.181813</v>
-      </c>
-      <c r="O17">
-        <v>0.4492515923977304</v>
-      </c>
-      <c r="P17">
-        <v>0.4784711627054499</v>
-      </c>
-      <c r="Q17">
-        <v>0.538340940271</v>
-      </c>
-      <c r="R17">
-        <v>4.845068462439</v>
-      </c>
-      <c r="S17">
-        <v>0.02066310824607126</v>
-      </c>
-      <c r="T17">
-        <v>0.02827044130699874</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.209003</v>
-      </c>
-      <c r="I18">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J18">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.292848333333334</v>
-      </c>
-      <c r="N18">
-        <v>18.878545</v>
-      </c>
-      <c r="O18">
-        <v>0.3658564756519352</v>
-      </c>
-      <c r="P18">
-        <v>0.3896519817642028</v>
-      </c>
-      <c r="Q18">
-        <v>0.4384080600705557</v>
-      </c>
-      <c r="R18">
-        <v>3.945672540635001</v>
-      </c>
-      <c r="S18">
-        <v>0.0168273904574818</v>
-      </c>
-      <c r="T18">
-        <v>0.02302256507651212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.209003</v>
-      </c>
-      <c r="I19">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J19">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.021228</v>
-      </c>
-      <c r="N19">
-        <v>0.063684</v>
-      </c>
-      <c r="O19">
-        <v>0.001234163109255392</v>
-      </c>
-      <c r="P19">
-        <v>0.001314433755709007</v>
-      </c>
-      <c r="Q19">
-        <v>0.001478905228</v>
-      </c>
-      <c r="R19">
-        <v>0.013310147052</v>
-      </c>
-      <c r="S19">
-        <v>5.676473128062945E-05</v>
-      </c>
-      <c r="T19">
-        <v>7.766324334489749E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.209003</v>
-      </c>
-      <c r="I20">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J20">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3.151199</v>
-      </c>
-      <c r="N20">
-        <v>6.302398</v>
-      </c>
-      <c r="O20">
-        <v>0.183205839255817</v>
-      </c>
-      <c r="P20">
-        <v>0.1300810984409417</v>
-      </c>
-      <c r="Q20">
-        <v>0.2195366815323334</v>
-      </c>
-      <c r="R20">
-        <v>1.317220089194</v>
-      </c>
-      <c r="S20">
-        <v>0.008426463371339187</v>
-      </c>
-      <c r="T20">
-        <v>0.007685834268111224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.209003</v>
-      </c>
-      <c r="I21">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J21">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.02332</v>
-      </c>
-      <c r="O21">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="P21">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="Q21">
-        <v>0.0005415499955555556</v>
-      </c>
-      <c r="R21">
-        <v>0.00487394996</v>
-      </c>
-      <c r="S21">
-        <v>2.078628122392248E-05</v>
-      </c>
-      <c r="T21">
-        <v>2.843896166702797E-05</v>
+        <v>0.01235779983236432</v>
       </c>
     </row>
   </sheetData>
